--- a/Uploads/ICICI BANK 26-03-2021.xlsx
+++ b/Uploads/ICICI BANK 26-03-2021.xlsx
@@ -25,21 +25,9 @@
     <t>Transaction Amount(INR)</t>
   </si>
   <si>
-    <t>MMT/IMPS/108506036028/BW2021032620121/NA        /Paytm Payments</t>
-  </si>
-  <si>
-    <t>MMT/IMPS/108508199494/Prestige holida/HARMINDER /HDFC Bank</t>
-  </si>
-  <si>
-    <t>CLG/SONI RAMKRISHNA/242853/CBI/24.03.2021</t>
-  </si>
-  <si>
     <t>NEFT-SBIN421085283566-MR  SUNIL KUMAR NAIR D-/ATTN//INB-00000067010463211-SBIN0</t>
   </si>
   <si>
-    <t>MMT/IMPS/108511170254/Installment/MUKESH C  /HDFCBank</t>
-  </si>
-  <si>
     <t>TRFR FROM: BIJU JOHN KARIAN</t>
   </si>
   <si>
@@ -113,6 +101,18 @@
   </si>
   <si>
     <t>MMT/IMPS/108519614110/P0306 Shivayoga/S B SHIVAY/Yes Bank Ltd</t>
+  </si>
+  <si>
+    <t>MMT/IMPS/108506036028/BW2021032620121/NA        /Paytm Payments &amp;</t>
+  </si>
+  <si>
+    <t>MMT/IMPS/108508199494/Prestige holida/HARMINDER /HDFC Bank &amp;</t>
+  </si>
+  <si>
+    <t>MMT/IMPS/108511170254/Installment/MUKESH C  /HDFCBank &amp;</t>
+  </si>
+  <si>
+    <t>CLG/SONI RAMKRISHNA/242853/CBI/24.03.2021 &amp;</t>
   </si>
 </sst>
 </file>
@@ -517,13 +517,13 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="2" max="2" width="83.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="0.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -545,7 +545,7 @@
         <v>44256</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6">
         <v>40000</v>
@@ -557,7 +557,7 @@
         <v>44257</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6">
         <v>15000</v>
@@ -569,7 +569,7 @@
         <v>44257</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6">
         <v>26250</v>
@@ -581,7 +581,7 @@
         <v>44257</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6">
         <v>25000</v>
@@ -593,7 +593,7 @@
         <v>44257</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6">
         <v>21250</v>
@@ -605,7 +605,7 @@
         <v>44257</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6">
         <v>1900000</v>
@@ -617,7 +617,7 @@
         <v>44257</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6">
         <v>173500</v>
@@ -629,7 +629,7 @@
         <v>44256</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6">
         <v>90000</v>
@@ -641,7 +641,7 @@
         <v>44256</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6">
         <v>46500</v>
@@ -653,7 +653,7 @@
         <v>44256</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6">
         <v>133000</v>
@@ -665,7 +665,7 @@
         <v>44256</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6">
         <v>20000</v>
@@ -677,7 +677,7 @@
         <v>44256</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6">
         <v>25000</v>
@@ -689,7 +689,7 @@
         <v>44256</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" s="6">
         <v>25000</v>
@@ -701,7 +701,7 @@
         <v>44256</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" s="6">
         <v>5000</v>
@@ -713,7 +713,7 @@
         <v>44257</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="6">
         <v>20000</v>
@@ -725,7 +725,7 @@
         <v>44257</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" s="6">
         <v>37500</v>
@@ -737,7 +737,7 @@
         <v>44257</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" s="6">
         <v>387113</v>
@@ -749,7 +749,7 @@
         <v>44257</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6">
         <v>137625</v>
@@ -761,7 +761,7 @@
         <v>44257</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" s="6">
         <v>21250</v>
@@ -773,7 +773,7 @@
         <v>44257</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" s="6">
         <v>353813</v>
@@ -785,7 +785,7 @@
         <v>44257</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C22" s="6">
         <v>23000</v>
@@ -797,7 +797,7 @@
         <v>44257</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23" s="6">
         <v>25000</v>
@@ -809,7 +809,7 @@
         <v>44257</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24" s="6">
         <v>29875</v>
@@ -821,7 +821,7 @@
         <v>44257</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25" s="6">
         <v>43544</v>
@@ -833,7 +833,7 @@
         <v>44257</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26" s="6">
         <v>114500</v>
@@ -845,7 +845,7 @@
         <v>44257</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27" s="6">
         <v>100</v>
@@ -857,7 +857,7 @@
         <v>44257</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" s="6">
         <v>26250</v>
@@ -869,7 +869,7 @@
         <v>44257</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C29" s="6">
         <v>187500</v>
@@ -881,7 +881,7 @@
         <v>44257</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" s="6">
         <v>20700</v>
@@ -893,7 +893,7 @@
         <v>44257</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31" s="6">
         <v>200000</v>
